--- a/biology/Botanique/Renoncule_aquatique/Renoncule_aquatique.xlsx
+++ b/biology/Botanique/Renoncule_aquatique/Renoncule_aquatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ranunculus aquatilis
 La renoncule aquatique (Ranunculus aquatilis) est une espèce de plantes herbacées vivaces de la famille des Renonculacées.
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (27 avril 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (27 avril 2024) :
 Batrachium aquatile (L.) Dumort.
 Batrachium radians (Revel) Dumort.</t>
         </is>
@@ -547,10 +561,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Caractéristiques
-Organes reproducteurs
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs
 Couleur dominante des fleurs : blanc
-Période de floraison : avril-juillet selon Tela Botanica[2]
+Période de floraison : avril-juillet selon Tela Botanica
 Inflorescence : racème simple
 Sexualité : hermaphrodite
 Ordre de maturation : protogyne
@@ -587,7 +606,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Holarctique (Régions tempérées de tout l'hémisphère boréal)
 Données d'après : Julve, Ph., 1998 ff. - Baseflor. Index botanique, écologique et chorologique de la flore de France. Version : 23 avril 2004.
